--- a/EERIE.xlsx
+++ b/EERIE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Word</t>
+  </si>
+  <si>
+    <t>Number of reported results</t>
+  </si>
+  <si>
+    <t>Number in hard mode</t>
   </si>
   <si>
     <t>w1</t>
@@ -694,15 +700,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,94 +1064,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778"/>
+    <col min="1" max="1" width="10.7777777777778" style="2"/>
+    <col min="2" max="2" width="16.4444444444444" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="29.8888888888889" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="19" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:19">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4">
         <v>45061</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>695</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D2" s="2">
+        <v>18334</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1874</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
